--- a/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>WKSP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,147 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
@@ -794,13 +814,19 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>500</v>
-      </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,13 +1075,15 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1036,47 +1104,59 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1096,37 +1176,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,13 +1491,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1384,39 +1524,51 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1600,7 +1786,7 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -1609,19 +1795,25 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1632,10 +1824,10 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -1644,71 +1836,89 @@
         <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>500</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>500</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1721,11 +1931,11 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -1736,8 +1946,14 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1745,16 +1961,16 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -1765,8 +1981,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1777,10 +1999,10 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1872,17 +2112,23 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>700</v>
+      </c>
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>600</v>
       </c>
       <c r="I54" s="3">
         <v>600</v>
       </c>
       <c r="J54" s="3">
+        <v>600</v>
+      </c>
+      <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1974,39 +2236,45 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -2023,66 +2291,84 @@
       <c r="K58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2124,11 +2416,11 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3236,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2817,28 +3251,34 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,26 +3290,28 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2949,25 +3409,31 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,48 +3581,60 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3145,41 +3643,53 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>WKSP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,66 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -732,31 +735,34 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,22 +773,22 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I9" s="3">
         <v>700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -790,8 +796,11 @@
       <c r="M9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -805,28 +814,31 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,28 +926,31 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>-300</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -942,11 +961,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
-        <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-500</v>
-      </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1110,62 +1143,68 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1182,43 +1221,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-200</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1530,45 +1599,51 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,17 +1792,18 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -1725,25 +1811,28 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,13 +1866,16 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -1792,33 +1884,36 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -1830,42 +1925,45 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
-        <v>100</v>
-      </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -1874,36 +1972,39 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>500</v>
       </c>
       <c r="G46" s="3">
+        <v>500</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>500</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
@@ -1912,13 +2013,16 @@
         <v>500</v>
       </c>
       <c r="L46" s="3">
+        <v>500</v>
+      </c>
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1937,8 +2041,8 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -1952,8 +2056,11 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1967,13 +2074,13 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -1987,8 +2094,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2005,7 +2115,7 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2118,17 +2237,20 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,28 +2284,31 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>700</v>
       </c>
       <c r="F54" s="3">
         <v>700</v>
       </c>
       <c r="G54" s="3">
+        <v>700</v>
+      </c>
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>600</v>
       </c>
       <c r="J54" s="3">
         <v>600</v>
@@ -2192,13 +2317,16 @@
         <v>600</v>
       </c>
       <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,13 +2356,14 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
@@ -2242,42 +2372,45 @@
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -2297,78 +2430,87 @@
       <c r="M58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
       </c>
       <c r="K60" s="3">
+        <v>900</v>
+      </c>
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2422,8 +2567,8 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1400</v>
       </c>
       <c r="G66" s="3">
         <v>1400</v>
       </c>
       <c r="H66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I66" s="3">
         <v>1300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>900</v>
       </c>
       <c r="J66" s="3">
         <v>900</v>
       </c>
       <c r="K66" s="3">
+        <v>900</v>
+      </c>
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-10500</v>
       </c>
       <c r="J72" s="3">
         <v>-10500</v>
       </c>
       <c r="K72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-10400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
       </c>
       <c r="K76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,13 +3511,14 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -3306,14 +3526,14 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>-100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -3327,8 +3547,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3417,23 +3646,26 @@
       <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>-100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,25 +3829,28 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -3614,16 +3859,19 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3636,8 +3884,8 @@
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3649,47 +3897,53 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>WKSP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,118 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,39 +790,45 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>1700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -817,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -832,13 +852,19 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,46 +963,58 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1146,53 +1214,65 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="E21" s="3">
-        <v>-400</v>
+        <v>-1000</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1201,7 +1281,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1210,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1224,46 +1304,58 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1602,48 +1742,60 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,25 +2049,31 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
@@ -1896,30 +2082,36 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>200</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -1928,10 +2120,10 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -1940,89 +2132,107 @@
         <v>300</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>500</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
       </c>
       <c r="M46" s="3">
+        <v>500</v>
+      </c>
+      <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2044,11 +2254,11 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2059,16 +2269,22 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2077,16 +2293,16 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2097,13 +2313,19 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -2118,10 +2340,10 @@
         <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2135,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2240,17 +2480,23 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>600</v>
       </c>
       <c r="L54" s="3">
         <v>600</v>
       </c>
       <c r="M54" s="3">
+        <v>600</v>
+      </c>
+      <c r="N54" s="3">
+        <v>600</v>
+      </c>
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,66 +2617,74 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
-        <v>900</v>
-      </c>
       <c r="F57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -2433,84 +2701,102 @@
       <c r="N58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,13 +2833,19 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2570,11 +2862,11 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -2585,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-12000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-10500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,19 +3886,25 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
@@ -3479,25 +3913,31 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,35 +3952,37 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3550,8 +3992,14 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,16 +4080,22 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3644,28 +4104,34 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3887,11 +4385,11 @@
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3900,31 +4398,37 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3932,18 +4436,24 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>WKSP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -752,31 +756,34 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,22 +803,22 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>1700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
-      </c>
-      <c r="L9" s="3">
-        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -819,20 +826,23 @@
       <c r="P9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -843,28 +853,31 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,25 +1001,25 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>-300</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>-300</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1010,11 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,54 +1254,60 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-300</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,25 +1315,25 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1748,54 +1818,60 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,26 +2053,27 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -1994,25 +2081,28 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,22 +2145,25 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -2079,28 +2172,31 @@
         <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2111,10 +2207,10 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -2126,51 +2222,54 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
-        <v>100</v>
-      </c>
       <c r="P44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2179,45 +2278,48 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E46" s="3">
         <v>13100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>500</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
@@ -2226,13 +2328,16 @@
         <v>500</v>
       </c>
       <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2260,8 +2365,8 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2275,20 +2380,23 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
@@ -2299,13 +2407,13 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2319,17 +2427,20 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>400</v>
+      </c>
+      <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3">
-        <v>100</v>
-      </c>
       <c r="F49" s="3">
         <v>100</v>
       </c>
@@ -2346,7 +2457,7 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,31 +2568,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2486,17 +2606,20 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,37 +2662,40 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E54" s="3">
         <v>14400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>700</v>
       </c>
       <c r="I54" s="3">
         <v>700</v>
       </c>
       <c r="J54" s="3">
+        <v>700</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>600</v>
       </c>
       <c r="M54" s="3">
         <v>600</v>
@@ -2578,13 +2704,16 @@
         <v>600</v>
       </c>
       <c r="O54" s="3">
+        <v>600</v>
+      </c>
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,22 +2749,23 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
       </c>
       <c r="G57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>900</v>
@@ -2643,28 +2774,31 @@
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,19 +2809,19 @@
         <v>300</v>
       </c>
       <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,87 +2853,93 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
       </c>
       <c r="M60" s="3">
         <v>900</v>
       </c>
       <c r="N60" s="3">
+        <v>900</v>
+      </c>
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,7 +2994,7 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2868,8 +3014,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1400</v>
       </c>
       <c r="J66" s="3">
         <v>1400</v>
       </c>
       <c r="K66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L66" s="3">
         <v>1300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>900</v>
       </c>
       <c r="M66" s="3">
         <v>900</v>
       </c>
       <c r="N66" s="3">
+        <v>900</v>
+      </c>
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-10500</v>
       </c>
       <c r="M72" s="3">
         <v>-10500</v>
       </c>
       <c r="N72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="O72" s="3">
         <v>-10400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E76" s="3">
         <v>12500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
       </c>
       <c r="N76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,13 +3826,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
       </c>
       <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,22 +4174,23 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3977,14 +4198,14 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>-100</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>-100</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,20 +4313,23 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4110,28 +4340,31 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>-100</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,34 +4567,37 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E100" s="3">
         <v>3600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4360,16 +4606,19 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>100</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4391,8 +4640,8 @@
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4404,34 +4653,37 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4442,18 +4694,21 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>WKSP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,95 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -759,31 +762,34 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,22 +812,22 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>1700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
-      </c>
-      <c r="M9" s="3">
-        <v>400</v>
       </c>
       <c r="N9" s="3">
         <v>400</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -829,23 +835,26 @@
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -856,28 +865,31 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>-300</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>-300</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1033,11 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1000</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
       </c>
       <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,13 +1244,14 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1257,57 +1290,63 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1318,25 +1357,25 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1353,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,13 +1842,16 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1821,57 +1890,63 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,29 +2139,30 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E41" s="3">
         <v>29000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2084,25 +2170,28 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,25 +2237,28 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
@@ -2175,33 +2267,36 @@
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2210,10 +2305,10 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -2225,54 +2320,57 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>300</v>
       </c>
-      <c r="P44" s="3">
-        <v>100</v>
-      </c>
       <c r="Q44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
         <v>7400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2281,48 +2379,51 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E46" s="3">
         <v>36800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>500</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
       </c>
       <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
@@ -2331,13 +2432,16 @@
         <v>500</v>
       </c>
       <c r="P46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2368,8 +2472,8 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2383,23 +2487,26 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
@@ -2410,13 +2517,13 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2430,20 +2537,23 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
         <v>400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3">
-        <v>100</v>
-      </c>
       <c r="G49" s="3">
         <v>100</v>
       </c>
@@ -2460,7 +2570,7 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2597,8 +2716,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2609,17 +2728,20 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,40 +2787,43 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E54" s="3">
         <v>38600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>700</v>
       </c>
       <c r="J54" s="3">
         <v>700</v>
       </c>
       <c r="K54" s="3">
+        <v>700</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>600</v>
       </c>
       <c r="N54" s="3">
         <v>600</v>
@@ -2707,13 +2832,16 @@
         <v>600</v>
       </c>
       <c r="P54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,25 +2879,26 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>1000</v>
       </c>
       <c r="H57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
@@ -2777,28 +2907,31 @@
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2812,19 +2945,19 @@
         <v>300</v>
       </c>
       <c r="G58" s="3">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
@@ -2844,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2856,90 +2992,96 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>900</v>
       </c>
       <c r="N60" s="3">
         <v>900</v>
       </c>
       <c r="O60" s="3">
+        <v>900</v>
+      </c>
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,19 +3127,22 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3017,8 +3162,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,46 +3339,49 @@
         <v>2100</v>
       </c>
       <c r="E66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1400</v>
       </c>
       <c r="K66" s="3">
         <v>1400</v>
       </c>
       <c r="L66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M66" s="3">
         <v>1300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>900</v>
       </c>
       <c r="N66" s="3">
         <v>900</v>
       </c>
       <c r="O66" s="3">
+        <v>900</v>
+      </c>
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-10500</v>
       </c>
       <c r="N72" s="3">
         <v>-10500</v>
       </c>
       <c r="O72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="P72" s="3">
         <v>-10400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E76" s="3">
         <v>36500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
       </c>
       <c r="O76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>-500</v>
       </c>
       <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,25 +4394,26 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -4201,14 +4421,14 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>-100</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>-100</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,14 +4554,14 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4343,28 +4572,31 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>-100</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,37 +4812,40 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>20100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4609,42 +4854,45 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4656,37 +4904,40 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>18700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4697,18 +4948,21 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>WKSP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,89 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,57 +755,63 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -815,31 +829,37 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>1700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,17 +870,17 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -868,13 +888,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -883,13 +903,19 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1026,40 +1066,46 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1177,66 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F17" s="3">
         <v>3700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1293,10 +1361,16 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,54 +1378,60 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-2000</v>
+        <v>-2700</v>
       </c>
       <c r="F21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1360,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1372,7 +1452,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1381,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1395,58 +1475,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-600</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-600</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-600</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1893,60 +2033,72 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-600</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-600</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F41" s="3">
         <v>28600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>29000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,37 +2420,43 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
@@ -2279,42 +2465,48 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>800</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -2323,10 +2515,10 @@
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2335,113 +2527,131 @@
         <v>300</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F45" s="3">
         <v>4700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>30800</v>
+      </c>
+      <c r="F46" s="3">
         <v>34000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>36800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>13100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>500</v>
-      </c>
-      <c r="O46" s="3">
-        <v>500</v>
       </c>
       <c r="P46" s="3">
         <v>500</v>
       </c>
       <c r="Q46" s="3">
+        <v>500</v>
+      </c>
+      <c r="R46" s="3">
+        <v>500</v>
+      </c>
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2475,11 +2685,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
@@ -2490,29 +2700,35 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
@@ -2520,16 +2736,16 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2540,26 +2756,32 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>700</v>
+      </c>
+      <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3">
-        <v>100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>100</v>
-      </c>
       <c r="I49" s="3">
         <v>100</v>
       </c>
@@ -2573,10 +2795,10 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2719,11 +2959,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -2731,17 +2971,23 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
+      <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F54" s="3">
         <v>36300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>38600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>14400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>600</v>
-      </c>
-      <c r="O54" s="3">
-        <v>600</v>
       </c>
       <c r="P54" s="3">
         <v>600</v>
       </c>
       <c r="Q54" s="3">
+        <v>600</v>
+      </c>
+      <c r="R54" s="3">
+        <v>600</v>
+      </c>
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3140,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>900</v>
       </c>
       <c r="L57" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
       </c>
       <c r="N57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O57" s="3">
+        <v>900</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2948,22 +3216,22 @@
         <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
@@ -2980,113 +3248,131 @@
       <c r="R58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3130,26 +3416,32 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
@@ -3165,11 +3457,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2100</v>
+        <v>8800</v>
       </c>
       <c r="E66" s="3">
         <v>2100</v>
       </c>
       <c r="F66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-14900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-14100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-10500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-10500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-9900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F76" s="3">
         <v>34200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>36500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>12500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-600</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,22 +4421,24 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,31 +4753,37 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
@@ -4358,25 +4792,31 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,46 +4835,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,29 +4999,35 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4575,28 +5035,34 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5301,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>20100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>8800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3" t="s">
+      <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4891,15 +5389,15 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -4907,43 +5405,49 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>18700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>8200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4951,18 +5455,24 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>WKSP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,16 +765,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -779,31 +783,34 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -814,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -835,22 +842,22 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>1700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
-      </c>
-      <c r="P9" s="3">
-        <v>400</v>
       </c>
       <c r="Q9" s="3">
         <v>400</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -858,8 +865,11 @@
       <c r="T9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,20 +880,20 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -894,28 +904,31 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1072,25 +1092,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>-300</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>-300</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1101,11 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1205,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1000</v>
       </c>
       <c r="I17" s="3">
         <v>1000</v>
       </c>
       <c r="J17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,7 +1359,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1367,10 +1401,13 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,64 +1415,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-300</v>
       </c>
       <c r="T21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1446,25 +1486,25 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-300</v>
       </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-300</v>
       </c>
       <c r="T26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-300</v>
       </c>
       <c r="T27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2067,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2039,66 +2109,72 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-300</v>
       </c>
       <c r="T33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-300</v>
       </c>
       <c r="T35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,38 +2400,39 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E41" s="3">
         <v>19100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2353,25 +2440,28 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,25 +2528,25 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
@@ -2462,43 +2555,46 @@
         <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
@@ -2506,10 +2602,10 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -2521,63 +2617,66 @@
         <v>100</v>
       </c>
       <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>300</v>
       </c>
-      <c r="S44" s="3">
-        <v>100</v>
-      </c>
       <c r="T44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2586,57 +2685,60 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E46" s="3">
         <v>25700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>36800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
-      </c>
-      <c r="P46" s="3">
-        <v>500</v>
       </c>
       <c r="Q46" s="3">
         <v>500</v>
@@ -2645,13 +2747,16 @@
         <v>500</v>
       </c>
       <c r="S46" s="3">
+        <v>500</v>
+      </c>
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2691,8 +2796,8 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -2706,32 +2811,35 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E48" s="3">
         <v>11700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
@@ -2742,13 +2850,13 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
-        <v>100</v>
-      </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2762,29 +2870,32 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3">
         <v>900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3">
-        <v>100</v>
-      </c>
       <c r="J49" s="3">
         <v>100</v>
       </c>
@@ -2801,7 +2912,7 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2965,8 +3085,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2977,17 +3097,20 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,49 +3165,52 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E54" s="3">
         <v>38200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>700</v>
       </c>
       <c r="M54" s="3">
         <v>700</v>
       </c>
       <c r="N54" s="3">
+        <v>700</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
-      </c>
-      <c r="P54" s="3">
-        <v>600</v>
       </c>
       <c r="Q54" s="3">
         <v>600</v>
@@ -3093,13 +3219,16 @@
         <v>600</v>
       </c>
       <c r="S54" s="3">
+        <v>600</v>
+      </c>
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,34 +3272,35 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1000</v>
       </c>
       <c r="J57" s="3">
         <v>1000</v>
       </c>
       <c r="K57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L57" s="3">
         <v>900</v>
@@ -3178,28 +3309,31 @@
         <v>900</v>
       </c>
       <c r="N57" s="3">
+        <v>900</v>
+      </c>
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
       </c>
       <c r="R57" s="3">
+        <v>600</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3222,19 +3356,19 @@
         <v>300</v>
       </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,10 +3400,10 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -3275,99 +3412,105 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1800</v>
       </c>
       <c r="F60" s="3">
         <v>1800</v>
       </c>
       <c r="G60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>900</v>
       </c>
       <c r="Q60" s="3">
         <v>900</v>
       </c>
       <c r="R60" s="3">
+        <v>900</v>
+      </c>
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,7 +3518,7 @@
         <v>5300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3422,28 +3565,31 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3463,8 +3609,8 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,7 +3813,7 @@
         <v>8800</v>
       </c>
       <c r="E66" s="3">
-        <v>2100</v>
+        <v>8800</v>
       </c>
       <c r="F66" s="3">
         <v>2100</v>
@@ -3664,46 +3822,49 @@
         <v>2100</v>
       </c>
       <c r="H66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1400</v>
       </c>
       <c r="N66" s="3">
         <v>1400</v>
       </c>
       <c r="O66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P66" s="3">
         <v>1300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>900</v>
       </c>
       <c r="Q66" s="3">
         <v>900</v>
       </c>
       <c r="R66" s="3">
+        <v>900</v>
+      </c>
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-10500</v>
       </c>
       <c r="Q72" s="3">
         <v>-10500</v>
       </c>
       <c r="R72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="S72" s="3">
         <v>-10400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E76" s="3">
         <v>29400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>34200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
       </c>
       <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-300</v>
       </c>
       <c r="T81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,16 +4621,17 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4441,7 +4640,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-2000</v>
       </c>
       <c r="F89" s="3">
         <v>-2000</v>
       </c>
       <c r="G89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
       </c>
       <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,34 +5057,35 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4872,14 +5093,14 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>-100</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>-100</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,32 +5232,35 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5041,28 +5271,31 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>-100</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,46 +5550,49 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>5400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>20100</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>20200</v>
+      </c>
+      <c r="I100" s="3">
         <v>3600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5355,16 +5601,19 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>100</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5395,12 +5644,12 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5411,46 +5660,49 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5461,18 +5713,21 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>WKSP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -786,31 +789,34 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -845,22 +851,22 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>1700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>400</v>
       </c>
       <c r="R9" s="3">
         <v>400</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -868,8 +874,11 @@
       <c r="U9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,20 +892,20 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -907,28 +916,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,13 +1084,16 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1095,25 +1114,25 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>-300</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>-300</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1124,11 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1000</v>
       </c>
       <c r="J17" s="3">
         <v>1000</v>
       </c>
       <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,13 +1389,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1404,10 +1437,13 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,70 +1451,73 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-300</v>
       </c>
       <c r="U21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1489,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1524,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-300</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-300</v>
       </c>
       <c r="U26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-300</v>
       </c>
       <c r="U27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,13 +2133,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2112,69 +2181,75 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-300</v>
       </c>
       <c r="U33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-300</v>
       </c>
       <c r="U35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,41 +2486,42 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E41" s="3">
         <v>16700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2443,25 +2529,28 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2531,25 +2623,25 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
@@ -2558,28 +2650,31 @@
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2587,17 +2682,17 @@
         <v>1300</v>
       </c>
       <c r="E44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F44" s="3">
         <v>1100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
@@ -2605,10 +2700,10 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -2620,66 +2715,69 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>300</v>
       </c>
-      <c r="T44" s="3">
-        <v>100</v>
-      </c>
       <c r="U44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2688,60 +2786,63 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E46" s="3">
         <v>22100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
       </c>
       <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>500</v>
       </c>
       <c r="R46" s="3">
         <v>500</v>
@@ -2750,13 +2851,16 @@
         <v>500</v>
       </c>
       <c r="T46" s="3">
+        <v>500</v>
+      </c>
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2799,8 +2903,8 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -2814,35 +2918,38 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E48" s="3">
         <v>12600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
@@ -2853,13 +2960,13 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2873,32 +2980,35 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3">
-        <v>100</v>
-      </c>
       <c r="K49" s="3">
         <v>100</v>
       </c>
@@ -2915,7 +3025,7 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3088,8 +3207,8 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -3100,17 +3219,20 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,52 +3290,55 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E54" s="3">
         <v>35700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>700</v>
       </c>
       <c r="N54" s="3">
         <v>700</v>
       </c>
       <c r="O54" s="3">
+        <v>700</v>
+      </c>
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>600</v>
       </c>
       <c r="R54" s="3">
         <v>600</v>
@@ -3222,13 +3347,16 @@
         <v>600</v>
       </c>
       <c r="T54" s="3">
+        <v>600</v>
+      </c>
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,37 +3402,38 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1000</v>
       </c>
       <c r="K57" s="3">
         <v>1000</v>
       </c>
       <c r="L57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
@@ -3312,33 +3442,36 @@
         <v>900</v>
       </c>
       <c r="O57" s="3">
+        <v>900</v>
+      </c>
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
@@ -3359,19 +3492,19 @@
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -3391,8 +3524,11 @@
       <c r="U58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3403,10 +3539,10 @@
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -3415,43 +3551,46 @@
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3459,58 +3598,61 @@
         <v>2500</v>
       </c>
       <c r="E60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1800</v>
       </c>
       <c r="G60" s="3">
         <v>1800</v>
       </c>
       <c r="H60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>900</v>
       </c>
       <c r="R60" s="3">
         <v>900</v>
       </c>
       <c r="S60" s="3">
+        <v>900</v>
+      </c>
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3521,7 +3663,7 @@
         <v>5300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3568,31 +3710,34 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3612,8 +3757,8 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,19 +3958,22 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="E66" s="3">
         <v>8800</v>
       </c>
       <c r="F66" s="3">
-        <v>2100</v>
+        <v>8800</v>
       </c>
       <c r="G66" s="3">
         <v>2100</v>
@@ -3825,46 +3982,49 @@
         <v>2100</v>
       </c>
       <c r="I66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1400</v>
       </c>
       <c r="O66" s="3">
         <v>1400</v>
       </c>
       <c r="P66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>900</v>
       </c>
       <c r="R66" s="3">
         <v>900</v>
       </c>
       <c r="S66" s="3">
+        <v>900</v>
+      </c>
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-27000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-10500</v>
       </c>
       <c r="R72" s="3">
         <v>-10500</v>
       </c>
       <c r="S72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="T72" s="3">
         <v>-10400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E76" s="3">
         <v>26900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>34200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-300</v>
       </c>
       <c r="S76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-300</v>
       </c>
       <c r="U81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,19 +4819,20 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4643,7 +4841,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2000</v>
       </c>
       <c r="G89" s="3">
         <v>-2000</v>
       </c>
       <c r="H89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-500</v>
       </c>
       <c r="J89" s="3">
         <v>-500</v>
       </c>
       <c r="K89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,37 +5277,38 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5096,14 +5316,14 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>-100</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>-100</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,35 +5461,38 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5274,28 +5503,31 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>-100</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,49 +5795,52 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>20200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5604,16 +5849,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5647,12 +5895,12 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5663,49 +5911,52 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5716,18 +5967,21 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>WKSP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,109 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -774,54 +782,60 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -833,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -854,36 +868,42 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>1700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
-      <c r="U9" s="3">
-        <v>100</v>
-      </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -895,23 +915,23 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
@@ -919,13 +939,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>200</v>
-      </c>
-      <c r="R10" s="3">
-        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>200</v>
@@ -934,13 +954,19 @@
         <v>100</v>
       </c>
       <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,20 +1121,26 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1117,40 +1157,46 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-3700</v>
       </c>
       <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,28 +1446,30 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1440,72 +1508,84 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-3300</v>
       </c>
       <c r="E21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,16 +1593,16 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1531,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1543,7 +1623,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1552,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1566,70 +1646,82 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-600</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-600</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-600</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,29 +2258,35 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2184,72 +2324,84 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-600</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-600</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F41" s="3">
         <v>14600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>16700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>19100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>25800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>28600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>29000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,49 +2791,55 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
@@ -2662,54 +2848,60 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>200</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -2718,10 +2910,10 @@
         <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
@@ -2730,145 +2922,163 @@
         <v>300</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+      <c r="X44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F46" s="3">
         <v>18300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>22100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>25700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>30800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>34000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>36800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>13100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>500</v>
-      </c>
-      <c r="S46" s="3">
-        <v>500</v>
       </c>
       <c r="T46" s="3">
         <v>500</v>
       </c>
       <c r="U46" s="3">
+        <v>500</v>
+      </c>
+      <c r="V46" s="3">
+        <v>500</v>
+      </c>
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2906,11 +3116,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
@@ -2921,41 +3131,47 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F48" s="3">
         <v>13100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>12600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>11700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
@@ -2963,16 +3179,16 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3">
-        <v>100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2983,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2992,29 +3214,29 @@
         <v>1300</v>
       </c>
       <c r="E49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3">
-        <v>100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>100</v>
-      </c>
       <c r="M49" s="3">
         <v>100</v>
       </c>
@@ -3028,10 +3250,10 @@
         <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3210,11 +3450,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3222,17 +3462,23 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
+      <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F54" s="3">
         <v>32800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>35700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>38200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>34000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>36300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>38600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>14400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
-      </c>
-      <c r="R54" s="3">
-        <v>600</v>
-      </c>
-      <c r="S54" s="3">
-        <v>600</v>
       </c>
       <c r="T54" s="3">
         <v>600</v>
       </c>
       <c r="U54" s="3">
+        <v>600</v>
+      </c>
+      <c r="V54" s="3">
+        <v>600</v>
+      </c>
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,81 +3663,89 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>900</v>
-      </c>
-      <c r="N57" s="3">
-        <v>900</v>
       </c>
       <c r="O57" s="3">
         <v>900</v>
       </c>
       <c r="P57" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q57" s="3">
         <v>900</v>
       </c>
       <c r="R57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S57" s="3">
+        <v>900</v>
+      </c>
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -3495,22 +3763,22 @@
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
+        <v>300</v>
+      </c>
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -3527,8 +3795,14 @@
       <c r="V58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3542,122 +3816,134 @@
         <v>400</v>
       </c>
       <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>5300</v>
@@ -3666,10 +3952,10 @@
         <v>5300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3713,38 +3999,44 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
@@ -3760,11 +4052,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F66" s="3">
         <v>8600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2100</v>
       </c>
       <c r="I66" s="3">
         <v>2100</v>
       </c>
       <c r="J66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-33400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-29900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-27000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-20800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-17100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-10500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-10500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-10400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-9900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F76" s="3">
         <v>24100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>26900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>29400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>31900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>34200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>36500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-600</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,34 +5216,36 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,43 +5620,49 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
@@ -5237,25 +5671,31 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,58 +5718,60 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,41 +5918,47 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-900</v>
+        <v>-1500</v>
       </c>
       <c r="E94" s="3">
         <v>-1200</v>
       </c>
       <c r="F94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-8400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5506,28 +5966,34 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
+      <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3" t="s">
+      <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>20200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>8800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V100" s="3" t="s">
+      <c r="X100" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5898,15 +6396,15 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -5914,55 +6412,61 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-6100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>18700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>8200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5970,18 +6474,24 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WKSP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>WKSP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,117 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -788,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -806,40 +810,43 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>1900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
@@ -853,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -874,22 +881,22 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>1700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>700</v>
-      </c>
-      <c r="T9" s="3">
-        <v>400</v>
       </c>
       <c r="U9" s="3">
         <v>400</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -897,13 +904,16 @@
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -921,20 +931,20 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
@@ -945,28 +955,31 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>-100</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,11 +1159,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1163,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>-300</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>-300</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1192,11 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>3900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1000</v>
       </c>
       <c r="M17" s="3">
         <v>1000</v>
       </c>
       <c r="N17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-300</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,16 +1481,17 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1466,13 +1500,13 @@
         <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1514,10 +1548,13 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,72 +1562,75 @@
         <v>-3300</v>
       </c>
       <c r="E21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-300</v>
       </c>
       <c r="X21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1599,14 +1639,14 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1617,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-3500</v>
       </c>
       <c r="F23" s="3">
         <v>-3500</v>
       </c>
       <c r="G23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-300</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-3500</v>
       </c>
       <c r="F26" s="3">
         <v>-3500</v>
       </c>
       <c r="G26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-300</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-3500</v>
       </c>
       <c r="F27" s="3">
         <v>-3500</v>
       </c>
       <c r="G27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-300</v>
       </c>
       <c r="X27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,16 +2331,19 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -2282,13 +2352,13 @@
         <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2330,78 +2400,84 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-3500</v>
       </c>
       <c r="F33" s="3">
         <v>-3500</v>
       </c>
       <c r="G33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-300</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-3500</v>
       </c>
       <c r="F35" s="3">
         <v>-3500</v>
       </c>
       <c r="G35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-300</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,50 +2747,51 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2712,25 +2799,28 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,19 +2887,22 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
@@ -2818,25 +2911,25 @@
         <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
@@ -2845,55 +2938,58 @@
         <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1600</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1300</v>
       </c>
       <c r="G44" s="3">
         <v>1300</v>
       </c>
       <c r="H44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I44" s="3">
         <v>1100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
@@ -2901,10 +2997,10 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2916,75 +3012,78 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>300</v>
       </c>
-      <c r="W44" s="3">
-        <v>100</v>
-      </c>
       <c r="X44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2993,69 +3092,72 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E46" s="3">
         <v>10500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>25700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
-      </c>
-      <c r="P46" s="3">
-        <v>500</v>
       </c>
       <c r="Q46" s="3">
         <v>500</v>
       </c>
       <c r="R46" s="3">
+        <v>500</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
-      </c>
-      <c r="T46" s="3">
-        <v>500</v>
       </c>
       <c r="U46" s="3">
         <v>500</v>
@@ -3064,13 +3166,16 @@
         <v>500</v>
       </c>
       <c r="W46" s="3">
+        <v>500</v>
+      </c>
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3081,7 +3186,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3122,8 +3227,8 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
@@ -3137,44 +3242,47 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E48" s="3">
         <v>15100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
-        <v>100</v>
-      </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
@@ -3185,13 +3293,13 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="S48" s="3">
-        <v>100</v>
-      </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3220,26 +3331,26 @@
         <v>1300</v>
       </c>
       <c r="G49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H49" s="3">
         <v>1000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3">
-        <v>100</v>
-      </c>
       <c r="N49" s="3">
         <v>100</v>
       </c>
@@ -3256,7 +3367,7 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3456,8 +3576,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3468,17 +3588,20 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,61 +3668,64 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E54" s="3">
         <v>27000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>700</v>
       </c>
       <c r="Q54" s="3">
         <v>700</v>
       </c>
       <c r="R54" s="3">
+        <v>700</v>
+      </c>
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
-      </c>
-      <c r="T54" s="3">
-        <v>600</v>
       </c>
       <c r="U54" s="3">
         <v>600</v>
@@ -3608,13 +3734,16 @@
         <v>600</v>
       </c>
       <c r="W54" s="3">
+        <v>600</v>
+      </c>
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,46 +3795,47 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2000</v>
       </c>
       <c r="F57" s="3">
         <v>2000</v>
       </c>
       <c r="G57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1000</v>
       </c>
       <c r="N57" s="3">
         <v>1000</v>
       </c>
       <c r="O57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P57" s="3">
         <v>900</v>
@@ -3713,28 +3844,31 @@
         <v>900</v>
       </c>
       <c r="R57" s="3">
+        <v>900</v>
+      </c>
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>600</v>
       </c>
       <c r="U57" s="3">
         <v>600</v>
       </c>
       <c r="V57" s="3">
+        <v>600</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,13 +3876,13 @@
         <v>5300</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -3769,19 +3903,19 @@
         <v>300</v>
       </c>
       <c r="N58" s="3">
+        <v>300</v>
+      </c>
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3822,10 +3959,10 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -3834,111 +3971,117 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
         <v>6900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2500</v>
       </c>
       <c r="G60" s="3">
         <v>2500</v>
       </c>
       <c r="H60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I60" s="3">
         <v>2400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1800</v>
       </c>
       <c r="J60" s="3">
         <v>1800</v>
       </c>
       <c r="K60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>900</v>
       </c>
       <c r="U60" s="3">
         <v>900</v>
       </c>
       <c r="V60" s="3">
+        <v>900</v>
+      </c>
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>5300</v>
@@ -3958,7 +4101,7 @@
         <v>5300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4005,40 +4148,43 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
       <c r="K62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4058,8 +4204,8 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,28 +4432,31 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E66" s="3">
         <v>7600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>8800</v>
       </c>
       <c r="H66" s="3">
         <v>8800</v>
       </c>
       <c r="I66" s="3">
-        <v>2100</v>
+        <v>8800</v>
       </c>
       <c r="J66" s="3">
         <v>2100</v>
@@ -4307,46 +4465,49 @@
         <v>2100</v>
       </c>
       <c r="L66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1400</v>
       </c>
       <c r="R66" s="3">
         <v>1400</v>
       </c>
       <c r="S66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T66" s="3">
         <v>1300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>900</v>
       </c>
       <c r="U66" s="3">
         <v>900</v>
       </c>
       <c r="V66" s="3">
+        <v>900</v>
+      </c>
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-10500</v>
       </c>
       <c r="U72" s="3">
         <v>-10500</v>
       </c>
       <c r="V72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="W72" s="3">
         <v>-10400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E76" s="3">
         <v>19400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>34200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-300</v>
       </c>
       <c r="U76" s="3">
         <v>-300</v>
       </c>
       <c r="V76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-3500</v>
       </c>
       <c r="F81" s="3">
         <v>-3500</v>
       </c>
       <c r="G81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-300</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,28 +5416,29 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -5248,7 +5447,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2000</v>
       </c>
       <c r="J89" s="3">
         <v>-2000</v>
       </c>
       <c r="K89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-500</v>
       </c>
       <c r="M89" s="3">
         <v>-500</v>
       </c>
       <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,46 +5940,47 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5767,14 +5988,14 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>-100</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>-100</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,44 +6151,47 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5972,28 +6202,31 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>-100</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,58 +6533,61 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>5400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>20200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6350,16 +6596,19 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>100</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6402,12 +6651,12 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -6418,58 +6667,61 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6480,18 +6732,21 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>
